--- a/output_examples/concurrent_time_df.xlsx
+++ b/output_examples/concurrent_time_df.xlsx
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>376.2082908153534</v>
+        <v>273.1205139160156</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>122.4411060810089</v>
+        <v>98.51266503334045</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>63.67383193969727</v>
+        <v>51.62224888801575</v>
       </c>
     </row>
   </sheetData>
